--- a/biology/Zoologie/Dichotomius/Dichotomius.xlsx
+++ b/biology/Zoologie/Dichotomius/Dichotomius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dichotomius est un genre de Coléoptères de la famille des Scarabaeidae. Il comprend environ 200 espèces toutes originaires des Amériques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dichotomius est un genre de Coléoptères de la famille des Scarabaeidae. Il comprend environ 200 espèces toutes originaires des Amériques.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 juin 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 juin 2021) :
 Dichotomius (Dichotomius) Hope, 1838
 Dichotomius (Homocanthonides) Luederwaldt, 1929
 Dichotomius (Luederwaldtinia) Martínez, 1951
 Dichotomius (Selenocopris) Burmeister, 1842
-Selon Catalogue of Life                                   (18 juin 2021)[3] :
+Selon Catalogue of Life                                   (18 juin 2021) :
 Dichotomius (Cephagonus) Luederwaldt, 1929
 Dichotomius (Dichotomius) Hope, 1838
 Dichotomius (Homocanthonides) Luederwaldt, 1929
@@ -550,9 +564,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (18 juin 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (18 juin 2021) :
 Dichotomius adrastus (Harold, 1875)
 Dichotomius affinis (Felsche, 1910)
 Dichotomius agenor (Harold, 1869)
@@ -785,10 +801,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom scientifique de ce taxon est Dichotomius, choisi par l'entomologiste britannique Frederic William Hope en 1838[1].
-Les genres suivants sont synonymes de Dichotomius selon GBIF       (18 juin 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom scientifique de ce taxon est Dichotomius, choisi par l'entomologiste britannique Frederic William Hope en 1838.
+Les genres suivants sont synonymes de Dichotomius selon GBIF       (18 juin 2021) :
 Brachycopris Haldeman, 1848
 Pinotus Erichson, 1847
 Pseudoheliocopris Ferreira, 1970
@@ -820,7 +838,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) F.W. Hope, « Observations on the lamellicorns of Olivier », Entomological Magazin, vol. 5,‎ 1838, p. 312-326.</t>
         </is>
